--- a/doc/函数调用-堆栈反汇编.xlsx
+++ b/doc/函数调用-堆栈反汇编.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="函数调用" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="88">
   <si>
     <t>call &lt;funciton.ILT+370(?func1@@YAXXZ)&gt;</t>
   </si>
@@ -1473,13 +1473,55 @@
   </si>
   <si>
     <t>*a = 10;</t>
+  </si>
+  <si>
+    <r>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008300"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ebp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF008300"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令相当于两条指令：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub esp,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov [esp],ebp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1616,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF008300"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1855,6 +1904,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1901,7 +1958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1933,9 +1990,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1967,6 +2025,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2142,11 +2201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3366,10 +3425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3377,12 +3438,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
+      <c r="J1" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="9"/>
       <c r="P2" t="s">
         <v>28</v>
       </c>
@@ -3399,6 +3467,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
+      <c r="J3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="9"/>
       <c r="P3" t="s">
         <v>27</v>
       </c>
@@ -3989,7 +4061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4003,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
